--- a/results/Таблица_3.10_ФИНАЛЬНАЯ_ДЛЯ_ДИПЛОМА.xlsx
+++ b/results/Таблица_3.10_ФИНАЛЬНАЯ_ДЛЯ_ДИПЛОМА.xlsx
@@ -592,20 +592,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.96</v>
+        <v>104.06</v>
       </c>
       <c r="C7" t="n">
-        <v>4.06</v>
+        <v>3.78</v>
       </c>
       <c r="D7" t="n">
-        <v>5.21</v>
+        <v>4.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.116</v>
+        <v>0.248</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+-83 %</t>
+          <t>+-70 %</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125.55</v>
+        <v>125.73</v>
       </c>
       <c r="C8" t="n">
         <v>4.47</v>
@@ -625,7 +625,7 @@
         <v>5.32</v>
       </c>
       <c r="E8" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>

--- a/results/Таблица_3.10_ФИНАЛЬНАЯ_ДЛЯ_ДИПЛОМА.xlsx
+++ b/results/Таблица_3.10_ФИНАЛЬНАЯ_ДЛЯ_ДИПЛОМА.xlsx
@@ -592,20 +592,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.06</v>
+        <v>111.69</v>
       </c>
       <c r="C7" t="n">
-        <v>3.78</v>
+        <v>4.06</v>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>5.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.248</v>
+        <v>0.138</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+-70 %</t>
+          <t>+-83 %</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125.73</v>
+        <v>125.7</v>
       </c>
       <c r="C8" t="n">
         <v>4.47</v>
